--- a/xl/dashboard/dashboard.2.xlsx
+++ b/xl/dashboard/dashboard.2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\shared\projects\polylab\xl\dashboard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="12495" windowHeight="8325"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="12495" windowHeight="8325" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="15" r:id="rId1"/>
@@ -21,12 +26,12 @@
     <definedName name="query">SUMMARY!$D$28</definedName>
     <definedName name="scenario">SUMMARY!$D$19</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="116">
   <si>
     <t>A</t>
   </si>
@@ -247,9 +252,6 @@
     <t>mkt_growth</t>
   </si>
   <si>
-    <t>by rez.appdev</t>
-  </si>
-  <si>
     <t>BASIC DASHBOARD v0.1</t>
   </si>
   <si>
@@ -280,9 +282,6 @@
     <t>hse_incidents</t>
   </si>
   <si>
-    <t>saudization</t>
-  </si>
-  <si>
     <t>kpi_id</t>
   </si>
   <si>
@@ -346,9 +345,6 @@
     <t>min(accidents)</t>
   </si>
   <si>
-    <t>max(saudization)</t>
-  </si>
-  <si>
     <t>profit_employee</t>
   </si>
   <si>
@@ -377,17 +373,23 @@
   </si>
   <si>
     <t>query</t>
+  </si>
+  <si>
+    <t>max(localization)</t>
+  </si>
+  <si>
+    <t>localization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,13 +820,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -834,6 +829,13 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -863,7 +865,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -895,7 +897,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -927,7 +929,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -958,7 +960,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -990,7 +992,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1043,7 +1045,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1074,7 +1076,7 @@
           <bgColor rgb="FFEAEAEA"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1103,7 +1105,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1135,7 +1137,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1167,7 +1169,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1201,7 +1203,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1236,7 +1238,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1271,7 +1273,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1306,7 +1308,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1341,7 +1343,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1376,7 +1378,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1408,7 +1410,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1441,7 +1443,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1473,7 +1475,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1526,7 +1528,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1557,7 +1559,7 @@
           <bgColor rgb="FFEAEAEA"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1586,7 +1588,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1618,7 +1620,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1650,7 +1652,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1684,7 +1686,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1718,7 +1720,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1752,7 +1754,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1786,7 +1788,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -1841,7 +1843,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1872,7 +1874,7 @@
           <bgColor rgb="FFEAEAEA"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1901,7 +1903,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1932,7 +1934,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1962,7 +1964,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1994,7 +1996,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -2026,7 +2028,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -2059,7 +2061,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -2092,7 +2094,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -2127,7 +2129,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -2159,7 +2161,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -2191,7 +2193,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2259,7 +2261,7 @@
           <bgColor rgb="FFEAEAEA"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -2334,7 +2336,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2367,7 +2369,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2422,7 +2424,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2450,7 +2452,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2497,6 +2499,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2509,13 +2519,13 @@
     <tableColumn id="9" name="mkt_growth" dataDxfId="57"/>
     <tableColumn id="5" name="mkt_capture" dataDxfId="56"/>
     <tableColumn id="6" name="revenue" dataDxfId="55">
-      <calculatedColumnFormula>[mkt_size]*(1+[mkt_growth])^duration * [mkt_capture]</calculatedColumnFormula>
+      <calculatedColumnFormula>scenarios[mkt_size]*(1+scenarios[mkt_growth])^duration * scenarios[mkt_capture]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="costs" dataDxfId="54">
-      <calculatedColumnFormula>SUM(staffTable[salary_m])*(1+[inflation])^duration * 12</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(staffTable[salary_m])*(1+scenarios[inflation])^duration * 12</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="profit" dataDxfId="53" dataCellStyle="Percent">
-      <calculatedColumnFormula>[revenue]-[costs]</calculatedColumnFormula>
+      <calculatedColumnFormula>scenarios[revenue]-scenarios[costs]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -2524,15 +2534,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="staffTable" displayName="staffTable" ref="B10:K16" totalsRowShown="0" headerRowDxfId="52" headerRowBorderDxfId="51" tableBorderDxfId="50" totalsRowBorderDxfId="49">
-  <autoFilter ref="B10:K16">
-    <filterColumn colId="2"/>
-    <filterColumn colId="3"/>
-    <filterColumn colId="4"/>
-    <filterColumn colId="6"/>
-    <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="9"/>
-  </autoFilter>
+  <autoFilter ref="B10:K16"/>
   <tableColumns count="10">
     <tableColumn id="1" name="id" dataDxfId="48"/>
     <tableColumn id="2" name="name" dataDxfId="47"/>
@@ -2545,10 +2547,10 @@
     <tableColumn id="5" name="overtime_m" dataDxfId="42"/>
     <tableColumn id="6" name="salary_m" dataDxfId="41"/>
     <tableColumn id="8" name="cost_hr" dataDxfId="40">
-      <calculatedColumnFormula>[salary_m]/240</calculatedColumnFormula>
+      <calculatedColumnFormula>staffTable[salary_m]/240</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="ot_cost_m" dataDxfId="39">
-      <calculatedColumnFormula>[cost_hr]*1.5*[overtime_m]</calculatedColumnFormula>
+      <calculatedColumnFormula>staffTable[cost_hr]*1.5*staffTable[overtime_m]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -2646,7 +2648,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2678,9 +2680,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2712,6 +2732,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2887,47 +2925,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="5.1328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="52">
+        <v>73</v>
+      </c>
+      <c r="J1" s="55">
         <f ca="1">NOW()</f>
-        <v>42617.941906828702</v>
-      </c>
-      <c r="K1" s="52"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>43291.007962847223</v>
+      </c>
+      <c r="K1" s="55"/>
+    </row>
+    <row r="2" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="41"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -2940,18 +2976,18 @@
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C9" s="20" t="s">
         <v>60</v>
       </c>
@@ -2959,12 +2995,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C13" s="20" t="s">
         <v>64</v>
       </c>
@@ -2976,21 +3012,21 @@
         <v>USD</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C14" s="20"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C15" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="26">
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C16" s="20"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C17" s="20" t="s">
         <v>70</v>
       </c>
@@ -3001,10 +3037,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C18" s="20"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C19" s="20" t="s">
         <v>57</v>
       </c>
@@ -3012,10 +3048,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C20" s="20"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C21" s="20" t="s">
         <v>66</v>
       </c>
@@ -3032,7 +3068,7 @@
         <v>72</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I21" s="24" t="s">
         <v>67</v>
@@ -3044,7 +3080,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D22" s="25" t="s">
         <v>0</v>
       </c>
@@ -3061,19 +3097,19 @@
         <v>0.02</v>
       </c>
       <c r="I22" s="28">
-        <f>[mkt_size]*(1+[mkt_growth])^duration * [mkt_capture]</f>
+        <f>scenarios[mkt_size]*(1+scenarios[mkt_growth])^duration * scenarios[mkt_capture]</f>
         <v>2437988.8399895146</v>
       </c>
       <c r="J22" s="29">
-        <f>SUM(staffTable[salary_m])*(1+[inflation])^duration * 12</f>
+        <f>SUM(staffTable[salary_m])*(1+scenarios[inflation])^duration * 12</f>
         <v>1394307.7382074615</v>
       </c>
       <c r="K22" s="30">
-        <f>[revenue]-[costs]</f>
+        <f>scenarios[revenue]-scenarios[costs]</f>
         <v>1043681.101782053</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D23" s="25" t="s">
         <v>2</v>
       </c>
@@ -3090,19 +3126,19 @@
         <v>0.03</v>
       </c>
       <c r="I23" s="28">
-        <f>[mkt_size]*(1+[mkt_growth])^duration * [mkt_capture]</f>
+        <f>scenarios[mkt_size]*(1+scenarios[mkt_growth])^duration * scenarios[mkt_capture]</f>
         <v>3656983.2599842716</v>
       </c>
       <c r="J23" s="29">
-        <f>SUM(staffTable[salary_m])*(1+[inflation])^duration * 12</f>
+        <f>SUM(staffTable[salary_m])*(1+scenarios[inflation])^duration * 12</f>
         <v>2220202.0459662401</v>
       </c>
       <c r="K23" s="30">
-        <f>[revenue]-[costs]</f>
+        <f>scenarios[revenue]-scenarios[costs]</f>
         <v>1436781.2140180315</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D24" s="25" t="s">
         <v>1</v>
       </c>
@@ -3119,26 +3155,26 @@
         <v>0.04</v>
       </c>
       <c r="I24" s="28">
-        <f>[mkt_size]*(1+[mkt_growth])^duration * [mkt_capture]</f>
+        <f>scenarios[mkt_size]*(1+scenarios[mkt_growth])^duration * scenarios[mkt_capture]</f>
         <v>4875977.6799790291</v>
       </c>
       <c r="J24" s="29">
-        <f>SUM(staffTable[salary_m])*(1+[inflation])^duration * 12</f>
+        <f>SUM(staffTable[salary_m])*(1+scenarios[inflation])^duration * 12</f>
         <v>5300027.3097916404</v>
       </c>
       <c r="K24" s="30">
-        <f>[revenue]-[costs]</f>
+        <f>scenarios[revenue]-scenarios[costs]</f>
         <v>-424049.62981261127</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D25" s="31"/>
       <c r="E25" s="32"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -3153,26 +3189,26 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C28" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B31" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C31" s="19"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C32" s="20" t="s">
         <v>47</v>
       </c>
@@ -3185,29 +3221,29 @@
       </c>
       <c r="G32" s="51"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C33" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="29">
         <f ca="1">AVERAGE(staffTable[service_yrs])</f>
-        <v>23.979629629629628</v>
+        <v>25.829629629629633</v>
       </c>
       <c r="E33" s="34" t="s">
         <v>48</v>
       </c>
       <c r="G33" s="51"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G34" s="51"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="19" t="s">
         <v>46</v>
       </c>
       <c r="G35" s="51"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C36" s="20" t="s">
         <v>49</v>
       </c>
@@ -3221,7 +3257,7 @@
       </c>
       <c r="G36" s="51"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C37" s="20" t="s">
         <v>58</v>
       </c>
@@ -3235,7 +3271,7 @@
       </c>
       <c r="G37" s="51"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C38" s="37" t="s">
         <v>59</v>
       </c>
@@ -3248,266 +3284,266 @@
         <v>USD</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40" s="19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="C41" s="56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C41" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="56" t="s">
+      <c r="D41" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="F41" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="C42" s="55">
+      <c r="G41" s="53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C42" s="52">
         <f t="array" ref="C42">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(1:1))-1,MATCH(C$41, logTable[#Headers],0)), "")</f>
         <v>11</v>
       </c>
-      <c r="D42" s="55">
+      <c r="D42" s="52">
         <f t="array" ref="D42">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(1:1))-1,MATCH(D$41, logTable[#Headers],0)), "")</f>
         <v>42773</v>
       </c>
-      <c r="E42" s="55">
+      <c r="E42" s="52">
         <f t="array" ref="E42">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(1:1))-1,MATCH(E$41, logTable[#Headers],0)), "")</f>
         <v>5</v>
       </c>
-      <c r="F42" s="55" t="str">
+      <c r="F42" s="52" t="str">
         <f t="array" ref="F42">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(1:1))-1,MATCH(F$41, logTable[#Headers],0)), "")</f>
-        <v>saudization</v>
-      </c>
-      <c r="G42" s="55">
+        <v>localization</v>
+      </c>
+      <c r="G42" s="52">
         <f t="array" ref="G42">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(1:1))-1,MATCH(G$41, logTable[#Headers],0)), "")</f>
         <v>0.31</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
-      <c r="C43" s="55">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C43" s="52">
         <f t="array" ref="C43">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(2:2))-1,MATCH(C$41, logTable[#Headers],0)), "")</f>
         <v>17</v>
       </c>
-      <c r="D43" s="55">
+      <c r="D43" s="52">
         <f t="array" ref="D43">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(2:2))-1,MATCH(D$41, logTable[#Headers],0)), "")</f>
         <v>42773</v>
       </c>
-      <c r="E43" s="55">
+      <c r="E43" s="52">
         <f t="array" ref="E43">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(2:2))-1,MATCH(E$41, logTable[#Headers],0)), "")</f>
         <v>5</v>
       </c>
-      <c r="F43" s="55" t="str">
+      <c r="F43" s="52" t="str">
         <f t="array" ref="F43">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(2:2))-1,MATCH(F$41, logTable[#Headers],0)), "")</f>
-        <v>saudization</v>
-      </c>
-      <c r="G43" s="55">
+        <v>localization</v>
+      </c>
+      <c r="G43" s="52">
         <f t="array" ref="G43">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(2:2))-1,MATCH(G$41, logTable[#Headers],0)), "")</f>
         <v>0.32</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
-      <c r="C44" s="55">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C44" s="52">
         <f t="array" ref="C44">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(3:3))-1,MATCH(C$41, logTable[#Headers],0)), "")</f>
         <v>23</v>
       </c>
-      <c r="D44" s="55">
+      <c r="D44" s="52">
         <f t="array" ref="D44">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(3:3))-1,MATCH(D$41, logTable[#Headers],0)), "")</f>
         <v>42773</v>
       </c>
-      <c r="E44" s="55">
+      <c r="E44" s="52">
         <f t="array" ref="E44">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(3:3))-1,MATCH(E$41, logTable[#Headers],0)), "")</f>
         <v>5</v>
       </c>
-      <c r="F44" s="55" t="str">
+      <c r="F44" s="52" t="str">
         <f t="array" ref="F44">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(3:3))-1,MATCH(F$41, logTable[#Headers],0)), "")</f>
-        <v>saudization</v>
-      </c>
-      <c r="G44" s="55">
+        <v>localization</v>
+      </c>
+      <c r="G44" s="52">
         <f t="array" ref="G44">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(3:3))-1,MATCH(G$41, logTable[#Headers],0)), "")</f>
         <v>0.33</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
-      <c r="C45" s="55">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C45" s="52">
         <f t="array" ref="C45">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(4:4))-1,MATCH(C$41, logTable[#Headers],0)), "")</f>
         <v>29</v>
       </c>
-      <c r="D45" s="55">
+      <c r="D45" s="52">
         <f t="array" ref="D45">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(4:4))-1,MATCH(D$41, logTable[#Headers],0)), "")</f>
         <v>42773</v>
       </c>
-      <c r="E45" s="55">
+      <c r="E45" s="52">
         <f t="array" ref="E45">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(4:4))-1,MATCH(E$41, logTable[#Headers],0)), "")</f>
         <v>5</v>
       </c>
-      <c r="F45" s="55" t="str">
+      <c r="F45" s="52" t="str">
         <f t="array" ref="F45">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(4:4))-1,MATCH(F$41, logTable[#Headers],0)), "")</f>
-        <v>saudization</v>
-      </c>
-      <c r="G45" s="55">
+        <v>localization</v>
+      </c>
+      <c r="G45" s="52">
         <f t="array" ref="G45">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(4:4))-1,MATCH(G$41, logTable[#Headers],0)), "")</f>
         <v>0.34</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
-      <c r="C46" s="55" t="str">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C46" s="52" t="str">
         <f t="array" ref="C46">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(5:5))-1,MATCH(C$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D46" s="55" t="str">
+      <c r="D46" s="52" t="str">
         <f t="array" ref="D46">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(5:5))-1,MATCH(D$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="E46" s="55" t="str">
+      <c r="E46" s="52" t="str">
         <f t="array" ref="E46">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(5:5))-1,MATCH(E$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="F46" s="55" t="str">
+      <c r="F46" s="52" t="str">
         <f t="array" ref="F46">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(5:5))-1,MATCH(F$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="G46" s="55" t="str">
+      <c r="G46" s="52" t="str">
         <f t="array" ref="G46">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(5:5))-1,MATCH(G$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:7">
-      <c r="C47" s="55" t="str">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C47" s="52" t="str">
         <f t="array" ref="C47">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(6:6))-1,MATCH(C$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D47" s="55" t="str">
+      <c r="D47" s="52" t="str">
         <f t="array" ref="D47">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(6:6))-1,MATCH(D$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="E47" s="55" t="str">
+      <c r="E47" s="52" t="str">
         <f t="array" ref="E47">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(6:6))-1,MATCH(E$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="F47" s="55" t="str">
+      <c r="F47" s="52" t="str">
         <f t="array" ref="F47">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(6:6))-1,MATCH(F$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="G47" s="55" t="str">
+      <c r="G47" s="52" t="str">
         <f t="array" ref="G47">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(6:6))-1,MATCH(G$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:7">
-      <c r="C48" s="55" t="str">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C48" s="52" t="str">
         <f t="array" ref="C48">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(7:7))-1,MATCH(C$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D48" s="55" t="str">
+      <c r="D48" s="52" t="str">
         <f t="array" ref="D48">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(7:7))-1,MATCH(D$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="E48" s="55" t="str">
+      <c r="E48" s="52" t="str">
         <f t="array" ref="E48">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(7:7))-1,MATCH(E$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="F48" s="55" t="str">
+      <c r="F48" s="52" t="str">
         <f t="array" ref="F48">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(7:7))-1,MATCH(F$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="G48" s="55" t="str">
+      <c r="G48" s="52" t="str">
         <f t="array" ref="G48">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(7:7))-1,MATCH(G$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="3:7">
-      <c r="C49" s="55" t="str">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C49" s="52" t="str">
         <f t="array" ref="C49">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(8:8))-1,MATCH(C$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D49" s="55" t="str">
+      <c r="D49" s="52" t="str">
         <f t="array" ref="D49">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(8:8))-1,MATCH(D$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="E49" s="55" t="str">
+      <c r="E49" s="52" t="str">
         <f t="array" ref="E49">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(8:8))-1,MATCH(E$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="F49" s="55" t="str">
+      <c r="F49" s="52" t="str">
         <f t="array" ref="F49">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(8:8))-1,MATCH(F$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="G49" s="55" t="str">
+      <c r="G49" s="52" t="str">
         <f t="array" ref="G49">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(8:8))-1,MATCH(G$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="3:7">
-      <c r="C50" s="55" t="str">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C50" s="52" t="str">
         <f t="array" ref="C50">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(9:9))-1,MATCH(C$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D50" s="55" t="str">
+      <c r="D50" s="52" t="str">
         <f t="array" ref="D50">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(9:9))-1,MATCH(D$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="E50" s="55" t="str">
+      <c r="E50" s="52" t="str">
         <f t="array" ref="E50">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(9:9))-1,MATCH(E$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="F50" s="55" t="str">
+      <c r="F50" s="52" t="str">
         <f t="array" ref="F50">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(9:9))-1,MATCH(F$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="G50" s="55" t="str">
+      <c r="G50" s="52" t="str">
         <f t="array" ref="G50">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(9:9))-1,MATCH(G$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="3:7">
-      <c r="C51" s="55" t="str">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C51" s="52" t="str">
         <f t="array" ref="C51">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(10:10))-1,MATCH(C$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D51" s="55" t="str">
+      <c r="D51" s="52" t="str">
         <f t="array" ref="D51">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(10:10))-1,MATCH(D$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="E51" s="55" t="str">
+      <c r="E51" s="52" t="str">
         <f t="array" ref="E51">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(10:10))-1,MATCH(E$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="F51" s="55" t="str">
+      <c r="F51" s="52" t="str">
         <f t="array" ref="F51">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(10:10))-1,MATCH(F$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="G51" s="55" t="str">
+      <c r="G51" s="52" t="str">
         <f t="array" ref="G51">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(10:10))-1,MATCH(G$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="3:7">
-      <c r="C52" s="55" t="str">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C52" s="52" t="str">
         <f t="array" ref="C52">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_id]=query,ROW(logTable[kpi_id])),ROW(11:11))-1,MATCH(C$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D52" s="55" t="str">
+      <c r="D52" s="52" t="str">
         <f t="array" ref="D52">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_id]=query,ROW(logTable[kpi_id])),ROW(11:11))-1,MATCH(D$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="E52" s="55" t="str">
+      <c r="E52" s="52" t="str">
         <f t="array" ref="E52">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_id]=query,ROW(logTable[kpi_id])),ROW(11:11))-1,MATCH(E$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="F52" s="55" t="str">
+      <c r="F52" s="52" t="str">
         <f t="array" ref="F52">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_id]=query,ROW(logTable[kpi_id])),ROW(11:11))-1,MATCH(F$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="G52" s="55" t="str">
+      <c r="G52" s="52" t="str">
         <f t="array" ref="G52">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_id]=query,ROW(logTable[kpi_id])),ROW(11:11))-1,MATCH(G$41, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
@@ -3533,7 +3569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3541,18 +3577,18 @@
       <selection pane="topRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
-    <col min="2" max="2" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.28515625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="11.3984375" style="4"/>
+    <col min="2" max="2" width="8.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.265625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.3984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" hidden="1" outlineLevel="1">
+    <row r="1" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -3567,7 +3603,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" hidden="1" outlineLevel="1">
+    <row r="2" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -3584,7 +3620,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" hidden="1" outlineLevel="1">
+    <row r="3" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3599,7 +3635,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" hidden="1" outlineLevel="1">
+    <row r="4" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3614,7 +3650,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" hidden="1" outlineLevel="1">
+    <row r="5" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3629,7 +3665,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3660,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" outlineLevel="1">
+    <row r="7" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -3677,7 +3713,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -3694,7 +3730,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3727,7 +3763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" collapsed="1">
+    <row r="10" spans="1:11" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -3762,7 +3798,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>1</v>
       </c>
@@ -3773,11 +3809,11 @@
         <v>36456</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="16">
         <f ca="1">YEARFRAC(staffTable[[#This Row],[doj]],NOW())</f>
-        <v>16.863888888888887</v>
+        <v>18.713888888888889</v>
       </c>
       <c r="G11" s="1">
         <v>21</v>
@@ -3789,15 +3825,15 @@
         <v>10000</v>
       </c>
       <c r="J11" s="12">
-        <f>[salary_m]/240</f>
+        <f>staffTable[salary_m]/240</f>
         <v>41.666666666666664</v>
       </c>
       <c r="K11" s="12">
-        <f>[cost_hr]*1.5*[overtime_m]</f>
+        <f>staffTable[cost_hr]*1.5*staffTable[overtime_m]</f>
         <v>15625</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>2</v>
       </c>
@@ -3808,11 +3844,11 @@
         <v>29221</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="16">
         <f ca="1">YEARFRAC(staffTable[[#This Row],[doj]],NOW())</f>
-        <v>36.674999999999997</v>
+        <v>38.524999999999999</v>
       </c>
       <c r="G12" s="1">
         <v>22</v>
@@ -3824,15 +3860,15 @@
         <v>13400</v>
       </c>
       <c r="J12" s="12">
-        <f>[salary_m]/240</f>
+        <f>staffTable[salary_m]/240</f>
         <v>55.833333333333336</v>
       </c>
       <c r="K12" s="12">
-        <f>[cost_hr]*1.5*[overtime_m]</f>
+        <f>staffTable[cost_hr]*1.5*staffTable[overtime_m]</f>
         <v>21356.25</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>3</v>
       </c>
@@ -3843,11 +3879,11 @@
         <v>27129</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="16">
         <f ca="1">YEARFRAC(staffTable[[#This Row],[doj]],NOW())</f>
-        <v>42.4</v>
+        <v>44.25</v>
       </c>
       <c r="G13" s="1">
         <v>23</v>
@@ -3859,15 +3895,15 @@
         <v>20100</v>
       </c>
       <c r="J13" s="12">
-        <f>[salary_m]/240</f>
+        <f>staffTable[salary_m]/240</f>
         <v>83.75</v>
       </c>
       <c r="K13" s="12">
-        <f>[cost_hr]*1.5*[overtime_m]</f>
+        <f>staffTable[cost_hr]*1.5*staffTable[overtime_m]</f>
         <v>32662.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
         <v>4</v>
       </c>
@@ -3878,11 +3914,11 @@
         <v>36892</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="16">
         <f ca="1">YEARFRAC(staffTable[[#This Row],[doj]],NOW())</f>
-        <v>15.675000000000001</v>
+        <v>17.524999999999999</v>
       </c>
       <c r="G14" s="1">
         <v>34</v>
@@ -3894,15 +3930,15 @@
         <v>8900</v>
       </c>
       <c r="J14" s="12">
-        <f>[salary_m]/240</f>
+        <f>staffTable[salary_m]/240</f>
         <v>37.083333333333336</v>
       </c>
       <c r="K14" s="12">
-        <f>[cost_hr]*1.5*[overtime_m]</f>
+        <f>staffTable[cost_hr]*1.5*staffTable[overtime_m]</f>
         <v>14740.625</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
         <v>5</v>
       </c>
@@ -3913,11 +3949,11 @@
         <v>37289</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="16">
         <f ca="1">YEARFRAC(staffTable[[#This Row],[doj]],NOW())</f>
-        <v>14.588888888888889</v>
+        <v>16.43888888888889</v>
       </c>
       <c r="G15" s="1">
         <v>22</v>
@@ -3929,15 +3965,15 @@
         <v>7900</v>
       </c>
       <c r="J15" s="12">
-        <f>[salary_m]/240</f>
+        <f>staffTable[salary_m]/240</f>
         <v>32.916666666666664</v>
       </c>
       <c r="K15" s="12">
-        <f>[cost_hr]*1.5*[overtime_m]</f>
+        <f>staffTable[cost_hr]*1.5*staffTable[overtime_m]</f>
         <v>13331.25</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>6</v>
       </c>
@@ -3948,11 +3984,11 @@
         <v>36161</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="16">
         <f ca="1">YEARFRAC(staffTable[[#This Row],[doj]],NOW())</f>
-        <v>17.675000000000001</v>
+        <v>19.524999999999999</v>
       </c>
       <c r="G16" s="11">
         <v>41</v>
@@ -3964,11 +4000,11 @@
         <v>11032</v>
       </c>
       <c r="J16" s="12">
-        <f>[salary_m]/240</f>
+        <f>staffTable[salary_m]/240</f>
         <v>45.966666666666669</v>
       </c>
       <c r="K16" s="12">
-        <f>[cost_hr]*1.5*[overtime_m]</f>
+        <f>staffTable[cost_hr]*1.5*staffTable[overtime_m]</f>
         <v>18961.25</v>
       </c>
     </row>
@@ -3982,7 +4018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3990,18 +4026,18 @@
       <selection pane="topRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
-    <col min="2" max="2" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="11.3984375" style="4"/>
+    <col min="2" max="2" width="8.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.265625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.3984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="1" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -4013,7 +4049,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="2" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -4025,7 +4061,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="3" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -4037,7 +4073,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="4" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -4049,7 +4085,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="5" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -4061,7 +4097,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -4085,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="7" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -4101,7 +4137,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -4113,7 +4149,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -4137,7 +4173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" collapsed="1">
+    <row r="10" spans="1:8" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -4163,7 +4199,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>1</v>
       </c>
@@ -4186,7 +4222,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>2</v>
       </c>
@@ -4209,7 +4245,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>3</v>
       </c>
@@ -4232,7 +4268,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
         <v>4</v>
       </c>
@@ -4255,7 +4291,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
         <v>5</v>
       </c>
@@ -4278,7 +4314,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>6</v>
       </c>
@@ -4316,31 +4352,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+      <selection pane="topRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
-    <col min="2" max="2" width="4.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="4"/>
+    <col min="2" max="2" width="4.265625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.73046875" style="4" customWidth="1"/>
     <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="4"/>
+    <col min="8" max="8" width="6.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.86328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.3984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="1" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -4357,7 +4393,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="2" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -4374,7 +4410,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="3" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -4391,7 +4427,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="4" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -4408,7 +4444,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="5" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -4425,7 +4461,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -4466,7 +4502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="7" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -4485,7 +4521,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -4502,7 +4538,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -4543,7 +4579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13" collapsed="1">
+    <row r="10" spans="1:13" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -4551,7 +4587,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>3</v>
@@ -4563,28 +4599,28 @@
         <v>7</v>
       </c>
       <c r="G10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>1</v>
       </c>
@@ -4592,22 +4628,22 @@
         <v>42653</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J11" s="43">
         <v>200</v>
@@ -4619,10 +4655,10 @@
         <v>130</v>
       </c>
       <c r="M11" s="45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>2</v>
       </c>
@@ -4634,19 +4670,19 @@
         <v>51</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="43" t="s">
-        <v>98</v>
-      </c>
       <c r="I12" s="43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J12" s="43">
         <v>150000</v>
@@ -4658,10 +4694,10 @@
         <v>150000</v>
       </c>
       <c r="M12" s="45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>3</v>
       </c>
@@ -4670,22 +4706,22 @@
         <v>42713</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J13" s="48">
         <v>0.75</v>
@@ -4697,10 +4733,10 @@
         <v>0.85</v>
       </c>
       <c r="M13" s="45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
         <v>4</v>
       </c>
@@ -4709,22 +4745,22 @@
         <v>42743</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F14" s="43" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J14" s="43">
         <v>100</v>
@@ -4736,10 +4772,10 @@
         <v>100</v>
       </c>
       <c r="M14" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
         <v>5</v>
       </c>
@@ -4748,22 +4784,22 @@
         <v>42773</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F15" s="43" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J15" s="48">
         <v>0.35</v>
@@ -4777,10 +4813,10 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="M15" s="45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>6</v>
       </c>
@@ -4789,22 +4825,22 @@
         <v>42803</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F16" s="43" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="I16" s="43" t="s">
         <v>98</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>100</v>
       </c>
       <c r="J16" s="48">
         <v>0.35</v>
@@ -4818,7 +4854,7 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="M16" s="45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4842,26 +4878,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+      <selection pane="topRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="0" style="4" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" style="4" customWidth="1"/>
     <col min="5" max="5" width="14" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="4"/>
+    <col min="7" max="16384" width="11.3984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="1" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -4871,7 +4907,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="2" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -4881,7 +4917,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="3" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -4891,7 +4927,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="4" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -4901,7 +4937,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="5" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -4911,7 +4947,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -4931,7 +4967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="7" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -4945,7 +4981,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -4955,7 +4991,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -4975,7 +5011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" collapsed="1">
+    <row r="10" spans="1:6" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -4983,19 +5019,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="46" t="s">
-        <v>87</v>
-      </c>
       <c r="F10" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>1</v>
       </c>
@@ -5006,16 +5042,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="49">
         <v>10</v>
       </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>2</v>
       </c>
@@ -5033,7 +5066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>3</v>
       </c>
@@ -5045,13 +5078,13 @@
         <v>3</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="50">
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
         <v>4</v>
       </c>
@@ -5063,13 +5096,13 @@
         <v>4</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="49">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
         <v>5</v>
       </c>
@@ -5081,13 +5114,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="F15" s="50">
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>6</v>
       </c>
@@ -5099,13 +5132,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" s="49">
         <v>50000</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="5">
         <v>7</v>
       </c>
@@ -5116,14 +5149,14 @@
         <v>1</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="43">
         <f>F11+10</f>
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="10">
         <v>8</v>
       </c>
@@ -5142,7 +5175,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="5">
         <v>9</v>
       </c>
@@ -5154,14 +5187,14 @@
         <v>3</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" s="44">
         <f>F13+0.05</f>
         <v>0.65</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="10">
         <v>10</v>
       </c>
@@ -5173,14 +5206,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" s="43">
         <f>F14-2</f>
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="5">
         <v>11</v>
       </c>
@@ -5192,14 +5225,14 @@
         <v>5</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="F21" s="44">
         <f>F15+0.01</f>
         <v>0.31</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="10">
         <v>12</v>
       </c>
@@ -5211,14 +5244,14 @@
         <v>6</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F22" s="43">
         <f>F16+5000</f>
         <v>55000</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="5">
         <v>13</v>
       </c>
@@ -5229,14 +5262,14 @@
         <v>1</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" s="43">
         <f>F17+10</f>
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="10">
         <v>14</v>
       </c>
@@ -5255,7 +5288,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="5">
         <v>15</v>
       </c>
@@ -5267,14 +5300,14 @@
         <v>3</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="44">
         <f>F19+0.05</f>
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="10">
         <v>16</v>
       </c>
@@ -5286,14 +5319,14 @@
         <v>4</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F26" s="43">
         <f>F20-2</f>
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="5">
         <v>17</v>
       </c>
@@ -5305,14 +5338,14 @@
         <v>5</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="F27" s="44">
         <f>F21+0.01</f>
         <v>0.32</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="10">
         <v>18</v>
       </c>
@@ -5324,14 +5357,14 @@
         <v>6</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F28" s="43">
         <f>F22+5000</f>
         <v>60000</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="5">
         <v>19</v>
       </c>
@@ -5342,14 +5375,14 @@
         <v>1</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F29" s="43">
         <f>F23+10</f>
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="10">
         <v>20</v>
       </c>
@@ -5368,7 +5401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="5">
         <v>21</v>
       </c>
@@ -5380,14 +5413,14 @@
         <v>3</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F31" s="44">
         <f>F25+0.05</f>
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="10">
         <v>22</v>
       </c>
@@ -5399,14 +5432,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F32" s="43">
         <f>F26-2</f>
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="5">
         <v>23</v>
       </c>
@@ -5418,14 +5451,14 @@
         <v>5</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="F33" s="44">
         <f>F27+0.01</f>
         <v>0.33</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="10">
         <v>24</v>
       </c>
@@ -5437,14 +5470,14 @@
         <v>6</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F34" s="43">
         <f>F28+5000</f>
         <v>65000</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="5">
         <v>25</v>
       </c>
@@ -5455,14 +5488,14 @@
         <v>1</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F35" s="43">
         <f>F29+10</f>
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="10">
         <v>26</v>
       </c>
@@ -5481,7 +5514,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="5">
         <v>27</v>
       </c>
@@ -5493,14 +5526,14 @@
         <v>3</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F37" s="44">
         <f>F31+0.05</f>
         <v>0.80000000000000016</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="10">
         <v>28</v>
       </c>
@@ -5512,14 +5545,14 @@
         <v>4</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F38" s="43">
         <f>F32-2</f>
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="5">
         <v>29</v>
       </c>
@@ -5531,14 +5564,14 @@
         <v>5</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="F39" s="44">
         <f>F33+0.01</f>
         <v>0.34</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="10">
         <v>30</v>
       </c>
@@ -5550,7 +5583,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F40" s="43">
         <f>F34+5000</f>
@@ -5572,25 +5605,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="54"/>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" s="57"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5598,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5606,7 +5639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
